--- a/数据整理/stocks/A股/上证主板/603078-江化微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603078-江化微.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,521 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7543</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603078-江化微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603078-江化微.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.31</v>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7311</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1143,13 +1186,1029 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603078-江化微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603078-江化微.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>1.31</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -532,6 +549,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1573,7 +1836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2085,7 +2348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603078-江化微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603078-江化微.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>2.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>1.31</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -549,6 +566,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -794,7 +943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1836,7 +1985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2348,7 +2497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
